--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_626.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_626.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32848-d79144-Reviews-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-Red-Roof-Inn-PalmdaleLancaster.h42372.Hotel-Information</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_626.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_626.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,336 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r562824467-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>32848</t>
+  </si>
+  <si>
+    <t>79144</t>
+  </si>
+  <si>
+    <t>562824467</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Worst hotel ever!</t>
+  </si>
+  <si>
+    <t>No hot water, not even a bar of soap. Sheets were used. Floor was absolutely disgusting, the walls were just as bad. I was stranded here 1500 miles from home or I would have left the first night. I was afraid to walk down the hall. The stench of the whole place was horrible!!! I have always had good luck with Red Roof, not this time. I wouldn't let my  nemesis stay here! This is the towel after I wiped up the floor a little.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r532044507-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>532044507</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>This is a somewhat low rent hotel. Rooms are usually clean, and it does have truck parking. Located close to several restaurants and a few stores. Staff is friendly and helpful. I do stay here quite often.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Red Roof Inn Palmdale-Lancaster, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>This is a somewhat low rent hotel. Rooms are usually clean, and it does have truck parking. Located close to several restaurants and a few stores. Staff is friendly and helpful. I do stay here quite often.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r505202539-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>505202539</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazingly Dissatisfied </t>
+  </si>
+  <si>
+    <t>This was a very disappointing experience! We have stayed at several Red Roof Inns but this was the worst one by far!! While Expedia made matters worse the management here showed very poor decision making. Refusing to give clean towels,  showing anger when guests reported issues. I am amazed that RRI has allowed this property to keep their name at this location!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Red Roof Inn Palmdale-Lancaster, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>This was a very disappointing experience! We have stayed at several Red Roof Inns but this was the worst one by far!! While Expedia made matters worse the management here showed very poor decision making. Refusing to give clean towels,  showing anger when guests reported issues. I am amazed that RRI has allowed this property to keep their name at this location!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r435881488-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>435881488</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Filthy Property : UNINHABITABLE</t>
+  </si>
+  <si>
+    <t>Upon arrival I requested a 1st floor room to accommodate a walking disabled family member and child. The male desk clerk told me only 2nd floor rooms were available and no elevator. Thinking maybe my relative might be able to navigate one flight of stairs, I first checked the 2nd flr. room.  It smelled of cigarettes, damp-mildew, had a stained dingy carpet and hair under the sheets as I checked for cleanliness. I politely insisted on a 1st flr room and was given one that had two beds without top bedspreads, five pillows w/o covers, a brownish smear on the ceiling next to smoke detector hanging by wires, one set of towels for three of us, stained carpet and window opened w/a malfunctioning lock. 
+Having no other choice at that hour to search for virtually fully booked hotels during June graduation month and being nearly exhausted, we stayed. I requested items that housekeeping neglected stocking in the room and got one more set of towels minus a 3rd set, 4 out of five pillow cases, no Top bedspreads and just tolerated the paid inconvenience being we planned to check out early. We woke up, opened the curtain to see a half filled swimming pool of aqua-green algae. The breakfast room was tight, tiny and located in a former guestroom. 
+I checked out giving my room key to a wonderful, friendly desk clerk named Angelika.  
+Three days later I check my...Upon arrival I requested a 1st floor room to accommodate a walking disabled family member and child. The male desk clerk told me only 2nd floor rooms were available and no elevator. Thinking maybe my relative might be able to navigate one flight of stairs, I first checked the 2nd flr. room.  It smelled of cigarettes, damp-mildew, had a stained dingy carpet and hair under the sheets as I checked for cleanliness. I politely insisted on a 1st flr room and was given one that had two beds without top bedspreads, five pillows w/o covers, a brownish smear on the ceiling next to smoke detector hanging by wires, one set of towels for three of us, stained carpet and window opened w/a malfunctioning lock. Having no other choice at that hour to search for virtually fully booked hotels during June graduation month and being nearly exhausted, we stayed. I requested items that housekeeping neglected stocking in the room and got one more set of towels minus a 3rd set, 4 out of five pillow cases, no Top bedspreads and just tolerated the paid inconvenience being we planned to check out early. We woke up, opened the curtain to see a half filled swimming pool of aqua-green algae. The breakfast room was tight, tiny and located in a former guestroom. I checked out giving my room key to a wonderful, friendly desk clerk named Angelika.  Three days later I check my voicemail at the airport on my way home to Florida and became appalled that Upper Management left a message saying if I do not return the two bedspreads from my room, they would charge my credit card ?  The next day I called to speak to the manager and left two voicemails for him to call me.  Marvin the manager returned my 3rd call.Now at this time not only were the bedspreads missing, but the pillows as well since my stay at RRI Palmdale CA.   The Upper Management in charge was not clear to say he would not charge me ?  In the meantime I was sent a generic " HOW WAS YOUR VISIT ? critique emaildirectly controlled from the Red Roof Inn Palmdale motel which is reviewed by Upper Management that can be posted or declined at their discretion.    I responded to the Upper management at this RRI Palmdale CA property stating Should YOU, Marvin charge my credit card for two missing bedspreads and missing towels,I will dispute the charge, report you and the property to the BBB,  The public health department, RR Inn headquarters and submit more detailed truth of conditions at that property.      I received a revised duplicated response of " We are sorry you did not have a good experience and work to make our guest comfortable etc. ..."We can not post your review etc....., but ended in the standard "please visit us again." ?  As a Red Roof Inn customer for over 25 years and to get a call being accused of taking motel pillows and bedspreads that have been slept on by 100's of people with traces of DNA, was insulting and disrespectful to me as Military Veteran, person and RediCard member.   One moment of importance is I got a confirmation that I will not be charged!The street view building front was decent and lobby was immaculately remodeled like new. Yet as you drive around the property the exterior and interior has gone unmaintained, filthy and in disrepair. This is my direct first hand experience !MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Red Roof Inn Palmdale-Lancaster, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Upon arrival I requested a 1st floor room to accommodate a walking disabled family member and child. The male desk clerk told me only 2nd floor rooms were available and no elevator. Thinking maybe my relative might be able to navigate one flight of stairs, I first checked the 2nd flr. room.  It smelled of cigarettes, damp-mildew, had a stained dingy carpet and hair under the sheets as I checked for cleanliness. I politely insisted on a 1st flr room and was given one that had two beds without top bedspreads, five pillows w/o covers, a brownish smear on the ceiling next to smoke detector hanging by wires, one set of towels for three of us, stained carpet and window opened w/a malfunctioning lock. 
+Having no other choice at that hour to search for virtually fully booked hotels during June graduation month and being nearly exhausted, we stayed. I requested items that housekeeping neglected stocking in the room and got one more set of towels minus a 3rd set, 4 out of five pillow cases, no Top bedspreads and just tolerated the paid inconvenience being we planned to check out early. We woke up, opened the curtain to see a half filled swimming pool of aqua-green algae. The breakfast room was tight, tiny and located in a former guestroom. 
+I checked out giving my room key to a wonderful, friendly desk clerk named Angelika.  
+Three days later I check my...Upon arrival I requested a 1st floor room to accommodate a walking disabled family member and child. The male desk clerk told me only 2nd floor rooms were available and no elevator. Thinking maybe my relative might be able to navigate one flight of stairs, I first checked the 2nd flr. room.  It smelled of cigarettes, damp-mildew, had a stained dingy carpet and hair under the sheets as I checked for cleanliness. I politely insisted on a 1st flr room and was given one that had two beds without top bedspreads, five pillows w/o covers, a brownish smear on the ceiling next to smoke detector hanging by wires, one set of towels for three of us, stained carpet and window opened w/a malfunctioning lock. Having no other choice at that hour to search for virtually fully booked hotels during June graduation month and being nearly exhausted, we stayed. I requested items that housekeeping neglected stocking in the room and got one more set of towels minus a 3rd set, 4 out of five pillow cases, no Top bedspreads and just tolerated the paid inconvenience being we planned to check out early. We woke up, opened the curtain to see a half filled swimming pool of aqua-green algae. The breakfast room was tight, tiny and located in a former guestroom. I checked out giving my room key to a wonderful, friendly desk clerk named Angelika.  Three days later I check my voicemail at the airport on my way home to Florida and became appalled that Upper Management left a message saying if I do not return the two bedspreads from my room, they would charge my credit card ?  The next day I called to speak to the manager and left two voicemails for him to call me.  Marvin the manager returned my 3rd call.Now at this time not only were the bedspreads missing, but the pillows as well since my stay at RRI Palmdale CA.   The Upper Management in charge was not clear to say he would not charge me ?  In the meantime I was sent a generic " HOW WAS YOUR VISIT ? critique emaildirectly controlled from the Red Roof Inn Palmdale motel which is reviewed by Upper Management that can be posted or declined at their discretion.    I responded to the Upper management at this RRI Palmdale CA property stating Should YOU, Marvin charge my credit card for two missing bedspreads and missing towels,I will dispute the charge, report you and the property to the BBB,  The public health department, RR Inn headquarters and submit more detailed truth of conditions at that property.      I received a revised duplicated response of " We are sorry you did not have a good experience and work to make our guest comfortable etc. ..."We can not post your review etc....., but ended in the standard "please visit us again." ?  As a Red Roof Inn customer for over 25 years and to get a call being accused of taking motel pillows and bedspreads that have been slept on by 100's of people with traces of DNA, was insulting and disrespectful to me as Military Veteran, person and RediCard member.   One moment of importance is I got a confirmation that I will not be charged!The street view building front was decent and lobby was immaculately remodeled like new. Yet as you drive around the property the exterior and interior has gone unmaintained, filthy and in disrepair. This is my direct first hand experience !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r408202255-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>408202255</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Rosa meriggios red roof review</t>
+  </si>
+  <si>
+    <t>Its okay the managers are really nice and helpful it needs improvement on the front desk they need to more friendly .its not the clean they never have clean towels  .many restaurants near by over all is okay MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Red Roof Inn Palmdale-Lancaster, responded to this reviewResponded August 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2016</t>
+  </si>
+  <si>
+    <t>Its okay the managers are really nice and helpful it needs improvement on the front desk they need to more friendly .its not the clean they never have clean towels  .many restaurants near by over all is okay More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r396646357-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>396646357</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Roaches, Dirty, Unfriendly staff (owner)</t>
+  </si>
+  <si>
+    <t>This is the worst place I have ever stayed, Hair all over the bed where I was glad I brought my own pillow and stuff, roaches in the tub (which was black filthy looking).  We slept with our shoes on as well just in case we had to get up because the floors were filthy.  Their "free" breakfast (although we did not eat) was cereal and rotten milk.  Yes it seems that it is a good price, but spend $20 more and stay somewhere else, this place is a waste of money..... !!!!!!!!!!!!!!!!!! They got rated 1 because I had to put something, I say they don't have housekeeping, because I don't know what housekeeper would leave a room that disgusting..MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Red Roof Inn Palmdale-Lancaster, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>This is the worst place I have ever stayed, Hair all over the bed where I was glad I brought my own pillow and stuff, roaches in the tub (which was black filthy looking).  We slept with our shoes on as well just in case we had to get up because the floors were filthy.  Their "free" breakfast (although we did not eat) was cereal and rotten milk.  Yes it seems that it is a good price, but spend $20 more and stay somewhere else, this place is a waste of money..... !!!!!!!!!!!!!!!!!! They got rated 1 because I had to put something, I say they don't have housekeeping, because I don't know what housekeeper would leave a room that disgusting..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r379523789-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>379523789</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>FIND ANYPLACE ELSE</t>
+  </si>
+  <si>
+    <t>Dump. Of the 2 rear security doors to the bldg., one didn't work and the other was held open with a rock, since the outside handle was gone. What little carpet there was in the halls was ripped and stained. The pool was closed and empty and did not look inviting anyway. The bathroom tiles were cracked or missing and the little towels were like trying to dry off with sandpaper. The only ice machine was all the way in the front lobby. I DID NOT leave my room after dark! Glad I was only there a short time.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Red Roof Inn Palmdale-Lancaster, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Dump. Of the 2 rear security doors to the bldg., one didn't work and the other was held open with a rock, since the outside handle was gone. What little carpet there was in the halls was ripped and stained. The pool was closed and empty and did not look inviting anyway. The bathroom tiles were cracked or missing and the little towels were like trying to dry off with sandpaper. The only ice machine was all the way in the front lobby. I DID NOT leave my room after dark! Glad I was only there a short time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r377514708-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>377514708</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>great hotel</t>
+  </si>
+  <si>
+    <t>very nice and very helpful if asked and honest with them quiet for the family they dont get upset of ur kid runs down the hall very family oriented. even house keeping is nice and its also the only hotel that allows ur dogs</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r367615203-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>367615203</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Six flags</t>
+  </si>
+  <si>
+    <t>I saw nothing wrong with this hotel.it does need work on the outside and hall carpet but the rooms were fine.The bed was comfy and it was clean enough for us to stay 3 nights.they didn't give us any problems.and staff was okay.i would recommend this to anyone like myself that has issues with dusty smelly hotel rooms as this hotel had no bad smell at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Red Roof Inn Palmdale-Lancaster, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>I saw nothing wrong with this hotel.it does need work on the outside and hall carpet but the rooms were fine.The bed was comfy and it was clean enough for us to stay 3 nights.they didn't give us any problems.and staff was okay.i would recommend this to anyone like myself that has issues with dusty smelly hotel rooms as this hotel had no bad smell at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r339787293-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>339787293</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Very average</t>
+  </si>
+  <si>
+    <t>Nothing special, but it is clean and cheap. They don't have an elevator and are doing some maintenance, but our stay here was completely average. The wifi didn't work and the shower head wouldn't turn on. It's a cheap motel for a cheap price. About what you would expect, but our room was ok. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Red Roof Inn Palmdale-Lancaster, responded to this reviewResponded January 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2016</t>
+  </si>
+  <si>
+    <t>Nothing special, but it is clean and cheap. They don't have an elevator and are doing some maintenance, but our stay here was completely average. The wifi didn't work and the shower head wouldn't turn on. It's a cheap motel for a cheap price. About what you would expect, but our room was ok. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r330693724-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>330693724</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>Front deck is horriable they are not friendly at all they need to take class to please people when they first service</t>
+  </si>
+  <si>
+    <t>This hotel Iam in red roof hotel  Palmdale/ Lancaster the front desk is horriable because they did not come to us we have wait like 30 to 45 for my turn to get room  than we get to room bathtub was not clean they have old dirt nasty furniture  that look like 1980 they need to replace new furniture and refrigerator too old like someone beat them up bathroom ok but room and bed ok  but they need to replace new furniture I can't put my stuff on this dirt loveseat or chair I can't even think about sit in that furniture sorry this not what I look for but price is ok if anyone want to stay here at redroof hotel  please check room before you book I won't come back here unless they remodel whole hotel and room too MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Red Roof Inn Palmdale-Lancaster, responded to this reviewResponded December 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2015</t>
+  </si>
+  <si>
+    <t>This hotel Iam in red roof hotel  Palmdale/ Lancaster the front desk is horriable because they did not come to us we have wait like 30 to 45 for my turn to get room  than we get to room bathtub was not clean they have old dirt nasty furniture  that look like 1980 they need to replace new furniture and refrigerator too old like someone beat them up bathroom ok but room and bed ok  but they need to replace new furniture I can't put my stuff on this dirt loveseat or chair I can't even think about sit in that furniture sorry this not what I look for but price is ok if anyone want to stay here at redroof hotel  please check room before you book I won't come back here unless they remodel whole hotel and room too More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r326979051-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>326979051</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Under construction!!</t>
+  </si>
+  <si>
+    <t>Our stay here was ridiculous!! We had originally wanted to go to motel 6 but this motel seemed cheaper and comfortable according to there pictures... But it Was not!! we ended up in 2 rooms... The fist one lacked the ash trays and the tv didnt work so we called the front desk to fix it... Matinecce couldn't even fix it... So they put us in a diffrent room... The second rooms A.C. didint work so they insisted on fixing it after about an hour they fixed it... There was only 1 towel in the bathroom and no trash can and a nasty stain on the lamp... I wont be here agian... When we checked out they gave us a 15% off card for our next visit... No thanks unless its a 20$ a night stay well pass!! Hope this was helpfull just pay a lil exstra for motel 6 if ur looking for a cheap motel!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Red Roof Inn Palmdale-Lancaster, responded to this reviewResponded November 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2015</t>
+  </si>
+  <si>
+    <t>Our stay here was ridiculous!! We had originally wanted to go to motel 6 but this motel seemed cheaper and comfortable according to there pictures... But it Was not!! we ended up in 2 rooms... The fist one lacked the ash trays and the tv didnt work so we called the front desk to fix it... Matinecce couldn't even fix it... So they put us in a diffrent room... The second rooms A.C. didint work so they insisted on fixing it after about an hour they fixed it... There was only 1 towel in the bathroom and no trash can and a nasty stain on the lamp... I wont be here agian... When we checked out they gave us a 15% off card for our next visit... No thanks unless its a 20$ a night stay well pass!! Hope this was helpfull just pay a lil exstra for motel 6 if ur looking for a cheap motel!!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +975,744 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8561</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8561</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8561</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8561</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8561</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8561</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8561</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8561</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8561</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8561</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8561</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8561</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_626.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_626.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>diannsbudget</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>SMRuby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r532044507-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>This is a somewhat low rent hotel. Rooms are usually clean, and it does have truck parking. Located close to several restaurants and a few stores. Staff is friendly and helpful. I do stay here quite often.More</t>
   </si>
   <si>
+    <t>Nataliepaz1960</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r505202539-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
   </si>
   <si>
     <t>This was a very disappointing experience! We have stayed at several Red Roof Inns but this was the worst one by far!! While Expedia made matters worse the management here showed very poor decision making. Refusing to give clean towels,  showing anger when guests reported issues. I am amazed that RRI has allowed this property to keep their name at this location!!More</t>
+  </si>
+  <si>
+    <t>Leonard H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r435881488-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
@@ -270,6 +282,9 @@
 Three days later I check my...Upon arrival I requested a 1st floor room to accommodate a walking disabled family member and child. The male desk clerk told me only 2nd floor rooms were available and no elevator. Thinking maybe my relative might be able to navigate one flight of stairs, I first checked the 2nd flr. room.  It smelled of cigarettes, damp-mildew, had a stained dingy carpet and hair under the sheets as I checked for cleanliness. I politely insisted on a 1st flr room and was given one that had two beds without top bedspreads, five pillows w/o covers, a brownish smear on the ceiling next to smoke detector hanging by wires, one set of towels for three of us, stained carpet and window opened w/a malfunctioning lock. Having no other choice at that hour to search for virtually fully booked hotels during June graduation month and being nearly exhausted, we stayed. I requested items that housekeeping neglected stocking in the room and got one more set of towels minus a 3rd set, 4 out of five pillow cases, no Top bedspreads and just tolerated the paid inconvenience being we planned to check out early. We woke up, opened the curtain to see a half filled swimming pool of aqua-green algae. The breakfast room was tight, tiny and located in a former guestroom. I checked out giving my room key to a wonderful, friendly desk clerk named Angelika.  Three days later I check my voicemail at the airport on my way home to Florida and became appalled that Upper Management left a message saying if I do not return the two bedspreads from my room, they would charge my credit card ?  The next day I called to speak to the manager and left two voicemails for him to call me.  Marvin the manager returned my 3rd call.Now at this time not only were the bedspreads missing, but the pillows as well since my stay at RRI Palmdale CA.   The Upper Management in charge was not clear to say he would not charge me ?  In the meantime I was sent a generic " HOW WAS YOUR VISIT ? critique emaildirectly controlled from the Red Roof Inn Palmdale motel which is reviewed by Upper Management that can be posted or declined at their discretion.    I responded to the Upper management at this RRI Palmdale CA property stating Should YOU, Marvin charge my credit card for two missing bedspreads and missing towels,I will dispute the charge, report you and the property to the BBB,  The public health department, RR Inn headquarters and submit more detailed truth of conditions at that property.      I received a revised duplicated response of " We are sorry you did not have a good experience and work to make our guest comfortable etc. ..."We can not post your review etc....., but ended in the standard "please visit us again." ?  As a Red Roof Inn customer for over 25 years and to get a call being accused of taking motel pillows and bedspreads that have been slept on by 100's of people with traces of DNA, was insulting and disrespectful to me as Military Veteran, person and RediCard member.   One moment of importance is I got a confirmation that I will not be charged!The street view building front was decent and lobby was immaculately remodeled like new. Yet as you drive around the property the exterior and interior has gone unmaintained, filthy and in disrepair. This is my direct first hand experience !More</t>
   </si>
   <si>
+    <t>Ginie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r408202255-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>Its okay the managers are really nice and helpful it needs improvement on the front desk they need to more friendly .its not the clean they never have clean towels  .many restaurants near by over all is okay More</t>
   </si>
   <si>
+    <t>Alicia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r396646357-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>This is the worst place I have ever stayed, Hair all over the bed where I was glad I brought my own pillow and stuff, roaches in the tub (which was black filthy looking).  We slept with our shoes on as well just in case we had to get up because the floors were filthy.  Their "free" breakfast (although we did not eat) was cereal and rotten milk.  Yes it seems that it is a good price, but spend $20 more and stay somewhere else, this place is a waste of money..... !!!!!!!!!!!!!!!!!! They got rated 1 because I had to put something, I say they don't have housekeeping, because I don't know what housekeeper would leave a room that disgusting..More</t>
   </si>
   <si>
+    <t>Don J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r379523789-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>Dump. Of the 2 rear security doors to the bldg., one didn't work and the other was held open with a rock, since the outside handle was gone. What little carpet there was in the halls was ripped and stained. The pool was closed and empty and did not look inviting anyway. The bathroom tiles were cracked or missing and the little towels were like trying to dry off with sandpaper. The only ice machine was all the way in the front lobby. I DID NOT leave my room after dark! Glad I was only there a short time.More</t>
   </si>
   <si>
+    <t>Paula B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r377514708-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -366,6 +390,9 @@
     <t>very nice and very helpful if asked and honest with them quiet for the family they dont get upset of ur kid runs down the hall very family oriented. even house keeping is nice and its also the only hotel that allows ur dogs</t>
   </si>
   <si>
+    <t>Margaret B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r367615203-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -393,6 +420,9 @@
     <t>I saw nothing wrong with this hotel.it does need work on the outside and hall carpet but the rooms were fine.The bed was comfy and it was clean enough for us to stay 3 nights.they didn't give us any problems.and staff was okay.i would recommend this to anyone like myself that has issues with dusty smelly hotel rooms as this hotel had no bad smell at all.More</t>
   </si>
   <si>
+    <t>eringrey1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r339787293-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>Nothing special, but it is clean and cheap. They don't have an elevator and are doing some maintenance, but our stay here was completely average. The wifi didn't work and the shower head wouldn't turn on. It's a cheap motel for a cheap price. About what you would expect, but our room was ok. More</t>
   </si>
   <si>
+    <t>Rechelle C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r330693724-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -445,6 +478,9 @@
   </si>
   <si>
     <t>This hotel Iam in red roof hotel  Palmdale/ Lancaster the front desk is horriable because they did not come to us we have wait like 30 to 45 for my turn to get room  than we get to room bathtub was not clean they have old dirt nasty furniture  that look like 1980 they need to replace new furniture and refrigerator too old like someone beat them up bathroom ok but room and bed ok  but they need to replace new furniture I can't put my stuff on this dirt loveseat or chair I can't even think about sit in that furniture sorry this not what I look for but price is ok if anyone want to stay here at redroof hotel  please check room before you book I won't come back here unless they remodel whole hotel and room too More</t>
+  </si>
+  <si>
+    <t>Heidi D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79144-r326979051-Red_Roof_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
@@ -979,43 +1015,47 @@
       <c r="A2" t="n">
         <v>8561</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1029,50 +1069,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>8561</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1084,56 +1128,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>8561</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1145,56 +1193,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>8561</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1212,56 +1264,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>8561</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1273,56 +1329,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>8561</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1340,56 +1400,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>8561</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1407,56 +1471,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8561</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1470,50 +1538,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8561</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1525,56 +1597,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>8561</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1586,47 +1662,51 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>8561</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
@@ -1643,56 +1723,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>8561</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1704,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="X13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
